--- a/data/output/FV2304_FV2210/INVOIC/31005.xlsx
+++ b/data/output/FV2304_FV2210/INVOIC/31005.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3942" uniqueCount="334">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3963" uniqueCount="334">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichtenanfang</t>
@@ -1153,6 +1153,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U197" totalsRowShown="0">
+  <autoFilter ref="A1:U197"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1442,7 +1472,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10262,5 +10295,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/INVOIC/31005.xlsx
+++ b/data/output/FV2304_FV2210/INVOIC/31005.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4666" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4514" uniqueCount="519">
   <si>
     <t>#</t>
   </si>
@@ -7679,48 +7679,46 @@
       <c r="V119" s="11"/>
     </row>
     <row r="120" spans="1:22">
-      <c r="A120" s="5" t="s">
+      <c r="A120" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B120" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="C120" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D120" s="5" t="s">
+      <c r="D120" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
-      <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
-      <c r="I120" s="5"/>
-      <c r="J120" s="5" t="s">
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="K120" s="5"/>
-      <c r="L120" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="M120" s="5" t="s">
+      <c r="K120" s="2"/>
+      <c r="L120" s="4"/>
+      <c r="M120" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N120" s="5" t="s">
+      <c r="N120" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O120" s="5" t="s">
+      <c r="O120" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="P120" s="5"/>
-      <c r="Q120" s="5"/>
-      <c r="R120" s="5"/>
-      <c r="S120" s="5"/>
-      <c r="T120" s="5"/>
-      <c r="U120" s="5" t="s">
+      <c r="P120" s="2"/>
+      <c r="Q120" s="2"/>
+      <c r="R120" s="2"/>
+      <c r="S120" s="2"/>
+      <c r="T120" s="2"/>
+      <c r="U120" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="V120" s="5"/>
+      <c r="V120" s="2"/>
     </row>
     <row r="121" spans="1:22">
       <c r="A121" s="5" t="s">
@@ -7750,9 +7748,7 @@
         <v>275</v>
       </c>
       <c r="K121" s="5"/>
-      <c r="L121" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L121" s="4"/>
       <c r="M121" s="5" t="s">
         <v>40</v>
       </c>
@@ -7806,9 +7802,7 @@
       <c r="K122" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="L122" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L122" s="4"/>
       <c r="M122" s="5" t="s">
         <v>40</v>
       </c>
@@ -7835,44 +7829,42 @@
       </c>
     </row>
     <row r="123" spans="1:22">
-      <c r="A123" s="5" t="s">
+      <c r="A123" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="B123" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="C123" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5"/>
-      <c r="G123" s="5"/>
-      <c r="H123" s="5"/>
-      <c r="I123" s="5"/>
-      <c r="J123" s="5" t="s">
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="K123" s="5"/>
-      <c r="L123" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="M123" s="5" t="s">
+      <c r="K123" s="2"/>
+      <c r="L123" s="4"/>
+      <c r="M123" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N123" s="5" t="s">
+      <c r="N123" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O123" s="5"/>
-      <c r="P123" s="5"/>
-      <c r="Q123" s="5"/>
-      <c r="R123" s="5"/>
-      <c r="S123" s="5"/>
-      <c r="T123" s="5"/>
-      <c r="U123" s="5" t="s">
+      <c r="O123" s="2"/>
+      <c r="P123" s="2"/>
+      <c r="Q123" s="2"/>
+      <c r="R123" s="2"/>
+      <c r="S123" s="2"/>
+      <c r="T123" s="2"/>
+      <c r="U123" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="V123" s="5"/>
+      <c r="V123" s="2"/>
     </row>
     <row r="124" spans="1:22">
       <c r="A124" s="5" t="s">
@@ -7896,9 +7888,7 @@
         <v>274</v>
       </c>
       <c r="K124" s="5"/>
-      <c r="L124" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L124" s="4"/>
       <c r="M124" s="5" t="s">
         <v>41</v>
       </c>
@@ -7946,9 +7936,7 @@
         <v>275</v>
       </c>
       <c r="K125" s="5"/>
-      <c r="L125" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L125" s="4"/>
       <c r="M125" s="5" t="s">
         <v>41</v>
       </c>
@@ -8002,9 +7990,7 @@
         <v>275</v>
       </c>
       <c r="K126" s="5"/>
-      <c r="L126" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L126" s="4"/>
       <c r="M126" s="5" t="s">
         <v>41</v>
       </c>
@@ -8058,9 +8044,7 @@
         <v>275</v>
       </c>
       <c r="K127" s="5"/>
-      <c r="L127" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L127" s="4"/>
       <c r="M127" s="5" t="s">
         <v>41</v>
       </c>
@@ -8087,44 +8071,42 @@
       <c r="V127" s="5"/>
     </row>
     <row r="128" spans="1:22">
-      <c r="A128" s="5" t="s">
+      <c r="A128" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="B128" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C128" s="5" t="s">
+      <c r="C128" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5"/>
-      <c r="G128" s="5"/>
-      <c r="H128" s="5"/>
-      <c r="I128" s="5"/>
-      <c r="J128" s="5" t="s">
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="K128" s="5"/>
-      <c r="L128" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="M128" s="5" t="s">
+      <c r="K128" s="2"/>
+      <c r="L128" s="4"/>
+      <c r="M128" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N128" s="5" t="s">
+      <c r="N128" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O128" s="5"/>
-      <c r="P128" s="5"/>
-      <c r="Q128" s="5"/>
-      <c r="R128" s="5"/>
-      <c r="S128" s="5"/>
-      <c r="T128" s="5"/>
-      <c r="U128" s="5" t="s">
+      <c r="O128" s="2"/>
+      <c r="P128" s="2"/>
+      <c r="Q128" s="2"/>
+      <c r="R128" s="2"/>
+      <c r="S128" s="2"/>
+      <c r="T128" s="2"/>
+      <c r="U128" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="V128" s="5"/>
+      <c r="V128" s="2"/>
     </row>
     <row r="129" spans="1:22">
       <c r="A129" s="5" t="s">
@@ -8148,9 +8130,7 @@
         <v>274</v>
       </c>
       <c r="K129" s="5"/>
-      <c r="L129" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L129" s="4"/>
       <c r="M129" s="5" t="s">
         <v>42</v>
       </c>
@@ -8198,9 +8178,7 @@
         <v>275</v>
       </c>
       <c r="K130" s="5"/>
-      <c r="L130" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L130" s="4"/>
       <c r="M130" s="5" t="s">
         <v>42</v>
       </c>
@@ -8227,48 +8205,46 @@
       <c r="V130" s="5"/>
     </row>
     <row r="131" spans="1:22">
-      <c r="A131" s="5" t="s">
+      <c r="A131" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="B131" s="5" t="s">
+      <c r="B131" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C131" s="5" t="s">
+      <c r="C131" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D131" s="5" t="s">
+      <c r="D131" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E131" s="5"/>
-      <c r="F131" s="5"/>
-      <c r="G131" s="5"/>
-      <c r="H131" s="5"/>
-      <c r="I131" s="5"/>
-      <c r="J131" s="5" t="s">
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="K131" s="5"/>
-      <c r="L131" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="M131" s="5" t="s">
+      <c r="K131" s="2"/>
+      <c r="L131" s="4"/>
+      <c r="M131" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N131" s="5" t="s">
+      <c r="N131" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O131" s="5" t="s">
+      <c r="O131" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P131" s="5"/>
-      <c r="Q131" s="5"/>
-      <c r="R131" s="5"/>
-      <c r="S131" s="5"/>
-      <c r="T131" s="5"/>
-      <c r="U131" s="5" t="s">
+      <c r="P131" s="2"/>
+      <c r="Q131" s="2"/>
+      <c r="R131" s="2"/>
+      <c r="S131" s="2"/>
+      <c r="T131" s="2"/>
+      <c r="U131" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="V131" s="5"/>
+      <c r="V131" s="2"/>
     </row>
     <row r="132" spans="1:22">
       <c r="A132" s="5" t="s">
@@ -8298,9 +8274,7 @@
         <v>275</v>
       </c>
       <c r="K132" s="5"/>
-      <c r="L132" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L132" s="4"/>
       <c r="M132" s="5" t="s">
         <v>43</v>
       </c>
@@ -8410,9 +8384,7 @@
         <v>275</v>
       </c>
       <c r="K134" s="5"/>
-      <c r="L134" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L134" s="4"/>
       <c r="M134" s="5" t="s">
         <v>43</v>
       </c>
@@ -8439,44 +8411,42 @@
       <c r="V134" s="5"/>
     </row>
     <row r="135" spans="1:22">
-      <c r="A135" s="5" t="s">
+      <c r="A135" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="B135" s="5" t="s">
+      <c r="B135" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C135" s="5" t="s">
+      <c r="C135" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="5"/>
-      <c r="G135" s="5"/>
-      <c r="H135" s="5"/>
-      <c r="I135" s="5"/>
-      <c r="J135" s="5" t="s">
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="K135" s="5"/>
-      <c r="L135" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="M135" s="5" t="s">
+      <c r="K135" s="2"/>
+      <c r="L135" s="4"/>
+      <c r="M135" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N135" s="5" t="s">
+      <c r="N135" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O135" s="5"/>
-      <c r="P135" s="5"/>
-      <c r="Q135" s="5"/>
-      <c r="R135" s="5"/>
-      <c r="S135" s="5"/>
-      <c r="T135" s="5"/>
-      <c r="U135" s="5" t="s">
+      <c r="O135" s="2"/>
+      <c r="P135" s="2"/>
+      <c r="Q135" s="2"/>
+      <c r="R135" s="2"/>
+      <c r="S135" s="2"/>
+      <c r="T135" s="2"/>
+      <c r="U135" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="V135" s="5"/>
+      <c r="V135" s="2"/>
     </row>
     <row r="136" spans="1:22">
       <c r="A136" s="5" t="s">
@@ -8500,9 +8470,7 @@
         <v>274</v>
       </c>
       <c r="K136" s="5"/>
-      <c r="L136" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L136" s="4"/>
       <c r="M136" s="5" t="s">
         <v>44</v>
       </c>
@@ -8550,9 +8518,7 @@
       <c r="K137" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="L137" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L137" s="4"/>
       <c r="M137" s="5" t="s">
         <v>44</v>
       </c>
@@ -8606,9 +8572,7 @@
       <c r="K138" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="L138" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L138" s="4"/>
       <c r="M138" s="5" t="s">
         <v>44</v>
       </c>
@@ -8662,9 +8626,7 @@
         <v>275</v>
       </c>
       <c r="K139" s="5"/>
-      <c r="L139" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L139" s="4"/>
       <c r="M139" s="5" t="s">
         <v>44</v>
       </c>
@@ -8691,48 +8653,46 @@
       <c r="V139" s="5"/>
     </row>
     <row r="140" spans="1:22">
-      <c r="A140" s="5" t="s">
+      <c r="A140" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="B140" s="5" t="s">
+      <c r="B140" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C140" s="5" t="s">
+      <c r="C140" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D140" s="5" t="s">
+      <c r="D140" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E140" s="5"/>
-      <c r="F140" s="5"/>
-      <c r="G140" s="5"/>
-      <c r="H140" s="5"/>
-      <c r="I140" s="5"/>
-      <c r="J140" s="5" t="s">
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+      <c r="J140" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="K140" s="5"/>
-      <c r="L140" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="M140" s="5" t="s">
+      <c r="K140" s="2"/>
+      <c r="L140" s="4"/>
+      <c r="M140" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N140" s="5" t="s">
+      <c r="N140" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O140" s="5" t="s">
+      <c r="O140" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P140" s="5"/>
-      <c r="Q140" s="5"/>
-      <c r="R140" s="5"/>
-      <c r="S140" s="5"/>
-      <c r="T140" s="5"/>
-      <c r="U140" s="5" t="s">
+      <c r="P140" s="2"/>
+      <c r="Q140" s="2"/>
+      <c r="R140" s="2"/>
+      <c r="S140" s="2"/>
+      <c r="T140" s="2"/>
+      <c r="U140" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="V140" s="5"/>
+      <c r="V140" s="2"/>
     </row>
     <row r="141" spans="1:22">
       <c r="A141" s="5" t="s">
@@ -8762,9 +8722,7 @@
         <v>275</v>
       </c>
       <c r="K141" s="5"/>
-      <c r="L141" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L141" s="4"/>
       <c r="M141" s="5" t="s">
         <v>45</v>
       </c>
@@ -8874,9 +8832,7 @@
         <v>275</v>
       </c>
       <c r="K143" s="5"/>
-      <c r="L143" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L143" s="4"/>
       <c r="M143" s="5" t="s">
         <v>45</v>
       </c>
@@ -8903,50 +8859,48 @@
       <c r="V143" s="5"/>
     </row>
     <row r="144" spans="1:22">
-      <c r="A144" s="5" t="s">
+      <c r="A144" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="B144" s="5" t="s">
+      <c r="B144" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C144" s="5" t="s">
+      <c r="C144" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D144" s="5" t="s">
+      <c r="D144" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E144" s="5"/>
-      <c r="F144" s="5"/>
-      <c r="G144" s="5"/>
-      <c r="H144" s="5"/>
-      <c r="I144" s="5"/>
-      <c r="J144" s="5" t="s">
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="K144" s="5" t="s">
+      <c r="K144" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="L144" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="M144" s="5" t="s">
+      <c r="L144" s="4"/>
+      <c r="M144" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N144" s="5" t="s">
+      <c r="N144" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O144" s="5" t="s">
+      <c r="O144" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P144" s="5"/>
-      <c r="Q144" s="5"/>
-      <c r="R144" s="5"/>
-      <c r="S144" s="5"/>
-      <c r="T144" s="5"/>
-      <c r="U144" s="5" t="s">
+      <c r="P144" s="2"/>
+      <c r="Q144" s="2"/>
+      <c r="R144" s="2"/>
+      <c r="S144" s="2"/>
+      <c r="T144" s="2"/>
+      <c r="U144" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="V144" s="5" t="s">
+      <c r="V144" s="2" t="s">
         <v>316</v>
       </c>
     </row>
@@ -8978,9 +8932,7 @@
         <v>275</v>
       </c>
       <c r="K145" s="5"/>
-      <c r="L145" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L145" s="4"/>
       <c r="M145" s="5" t="s">
         <v>46</v>
       </c>
@@ -9034,9 +8986,7 @@
       <c r="K146" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="L146" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L146" s="4"/>
       <c r="M146" s="5" t="s">
         <v>46</v>
       </c>
@@ -9063,48 +9013,46 @@
       </c>
     </row>
     <row r="147" spans="1:22">
-      <c r="A147" s="5" t="s">
+      <c r="A147" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="B147" s="5" t="s">
+      <c r="B147" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C147" s="5" t="s">
+      <c r="C147" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D147" s="5" t="s">
+      <c r="D147" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5"/>
-      <c r="G147" s="5"/>
-      <c r="H147" s="5"/>
-      <c r="I147" s="5"/>
-      <c r="J147" s="5" t="s">
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
+      <c r="J147" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="K147" s="5"/>
-      <c r="L147" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="M147" s="5" t="s">
+      <c r="K147" s="2"/>
+      <c r="L147" s="4"/>
+      <c r="M147" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N147" s="5" t="s">
+      <c r="N147" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O147" s="5" t="s">
+      <c r="O147" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P147" s="5"/>
-      <c r="Q147" s="5"/>
-      <c r="R147" s="5"/>
-      <c r="S147" s="5"/>
-      <c r="T147" s="5"/>
-      <c r="U147" s="5" t="s">
+      <c r="P147" s="2"/>
+      <c r="Q147" s="2"/>
+      <c r="R147" s="2"/>
+      <c r="S147" s="2"/>
+      <c r="T147" s="2"/>
+      <c r="U147" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="V147" s="5"/>
+      <c r="V147" s="2"/>
     </row>
     <row r="148" spans="1:22">
       <c r="A148" s="5" t="s">
@@ -9134,9 +9082,7 @@
         <v>275</v>
       </c>
       <c r="K148" s="5"/>
-      <c r="L148" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L148" s="4"/>
       <c r="M148" s="5" t="s">
         <v>47</v>
       </c>
@@ -9188,9 +9134,7 @@
         <v>277</v>
       </c>
       <c r="K149" s="5"/>
-      <c r="L149" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L149" s="4"/>
       <c r="M149" s="5" t="s">
         <v>47</v>
       </c>
@@ -9242,9 +9186,7 @@
         <v>275</v>
       </c>
       <c r="K150" s="5"/>
-      <c r="L150" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L150" s="4"/>
       <c r="M150" s="5" t="s">
         <v>47</v>
       </c>
@@ -9271,48 +9213,46 @@
       <c r="V150" s="5"/>
     </row>
     <row r="151" spans="1:22">
-      <c r="A151" s="5" t="s">
+      <c r="A151" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B151" s="5" t="s">
+      <c r="B151" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C151" s="5" t="s">
+      <c r="C151" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D151" s="5" t="s">
+      <c r="D151" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5"/>
-      <c r="G151" s="5"/>
-      <c r="H151" s="5"/>
-      <c r="I151" s="5"/>
-      <c r="J151" s="5" t="s">
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2"/>
+      <c r="J151" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="K151" s="5"/>
-      <c r="L151" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="M151" s="5" t="s">
+      <c r="K151" s="2"/>
+      <c r="L151" s="4"/>
+      <c r="M151" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N151" s="5" t="s">
+      <c r="N151" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O151" s="5" t="s">
+      <c r="O151" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P151" s="5"/>
-      <c r="Q151" s="5"/>
-      <c r="R151" s="5"/>
-      <c r="S151" s="5"/>
-      <c r="T151" s="5"/>
-      <c r="U151" s="5" t="s">
+      <c r="P151" s="2"/>
+      <c r="Q151" s="2"/>
+      <c r="R151" s="2"/>
+      <c r="S151" s="2"/>
+      <c r="T151" s="2"/>
+      <c r="U151" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="V151" s="5"/>
+      <c r="V151" s="2"/>
     </row>
     <row r="152" spans="1:22">
       <c r="A152" s="5" t="s">
@@ -9342,9 +9282,7 @@
         <v>275</v>
       </c>
       <c r="K152" s="5"/>
-      <c r="L152" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L152" s="4"/>
       <c r="M152" s="5" t="s">
         <v>48</v>
       </c>
@@ -9396,9 +9334,7 @@
         <v>277</v>
       </c>
       <c r="K153" s="5"/>
-      <c r="L153" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L153" s="4"/>
       <c r="M153" s="5" t="s">
         <v>48</v>
       </c>
@@ -9450,9 +9386,7 @@
         <v>275</v>
       </c>
       <c r="K154" s="5"/>
-      <c r="L154" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L154" s="4"/>
       <c r="M154" s="5" t="s">
         <v>48</v>
       </c>
@@ -9479,44 +9413,42 @@
       <c r="V154" s="5"/>
     </row>
     <row r="155" spans="1:22">
-      <c r="A155" s="5" t="s">
+      <c r="A155" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="B155" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C155" s="5" t="s">
+      <c r="C155" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
-      <c r="F155" s="5"/>
-      <c r="G155" s="5"/>
-      <c r="H155" s="5"/>
-      <c r="I155" s="5"/>
-      <c r="J155" s="5" t="s">
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+      <c r="J155" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="K155" s="5"/>
-      <c r="L155" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="M155" s="5" t="s">
+      <c r="K155" s="2"/>
+      <c r="L155" s="4"/>
+      <c r="M155" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N155" s="5" t="s">
+      <c r="N155" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O155" s="5"/>
-      <c r="P155" s="5"/>
-      <c r="Q155" s="5"/>
-      <c r="R155" s="5"/>
-      <c r="S155" s="5"/>
-      <c r="T155" s="5"/>
-      <c r="U155" s="5" t="s">
+      <c r="O155" s="2"/>
+      <c r="P155" s="2"/>
+      <c r="Q155" s="2"/>
+      <c r="R155" s="2"/>
+      <c r="S155" s="2"/>
+      <c r="T155" s="2"/>
+      <c r="U155" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="V155" s="5"/>
+      <c r="V155" s="2"/>
     </row>
     <row r="156" spans="1:22">
       <c r="A156" s="5" t="s">
@@ -9540,9 +9472,7 @@
         <v>274</v>
       </c>
       <c r="K156" s="5"/>
-      <c r="L156" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L156" s="4"/>
       <c r="M156" s="5" t="s">
         <v>49</v>
       </c>
@@ -9590,9 +9520,7 @@
         <v>275</v>
       </c>
       <c r="K157" s="5"/>
-      <c r="L157" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L157" s="4"/>
       <c r="M157" s="5" t="s">
         <v>49</v>
       </c>
@@ -9646,9 +9574,7 @@
       <c r="K158" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="L158" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L158" s="4"/>
       <c r="M158" s="5" t="s">
         <v>49</v>
       </c>
@@ -9675,44 +9601,42 @@
       </c>
     </row>
     <row r="159" spans="1:22">
-      <c r="A159" s="5" t="s">
+      <c r="A159" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="B159" s="5" t="s">
+      <c r="B159" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C159" s="5" t="s">
+      <c r="C159" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D159" s="5"/>
-      <c r="E159" s="5"/>
-      <c r="F159" s="5"/>
-      <c r="G159" s="5"/>
-      <c r="H159" s="5"/>
-      <c r="I159" s="5"/>
-      <c r="J159" s="5" t="s">
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2"/>
+      <c r="J159" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="K159" s="5"/>
-      <c r="L159" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="M159" s="5" t="s">
+      <c r="K159" s="2"/>
+      <c r="L159" s="4"/>
+      <c r="M159" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N159" s="5" t="s">
+      <c r="N159" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="O159" s="5"/>
-      <c r="P159" s="5"/>
-      <c r="Q159" s="5"/>
-      <c r="R159" s="5"/>
-      <c r="S159" s="5"/>
-      <c r="T159" s="5"/>
-      <c r="U159" s="5" t="s">
+      <c r="O159" s="2"/>
+      <c r="P159" s="2"/>
+      <c r="Q159" s="2"/>
+      <c r="R159" s="2"/>
+      <c r="S159" s="2"/>
+      <c r="T159" s="2"/>
+      <c r="U159" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="V159" s="5"/>
+      <c r="V159" s="2"/>
     </row>
     <row r="160" spans="1:22">
       <c r="A160" s="5" t="s">
@@ -9736,9 +9660,7 @@
         <v>274</v>
       </c>
       <c r="K160" s="5"/>
-      <c r="L160" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L160" s="4"/>
       <c r="M160" s="5" t="s">
         <v>50</v>
       </c>
@@ -9786,9 +9708,7 @@
         <v>275</v>
       </c>
       <c r="K161" s="5"/>
-      <c r="L161" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L161" s="4"/>
       <c r="M161" s="5" t="s">
         <v>50</v>
       </c>
@@ -9842,9 +9762,7 @@
       <c r="K162" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="L162" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L162" s="4"/>
       <c r="M162" s="5" t="s">
         <v>50</v>
       </c>
@@ -9871,44 +9789,42 @@
       </c>
     </row>
     <row r="163" spans="1:22">
-      <c r="A163" s="5" t="s">
+      <c r="A163" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="B163" s="5" t="s">
+      <c r="B163" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C163" s="5" t="s">
+      <c r="C163" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D163" s="5"/>
-      <c r="E163" s="5"/>
-      <c r="F163" s="5"/>
-      <c r="G163" s="5"/>
-      <c r="H163" s="5"/>
-      <c r="I163" s="5"/>
-      <c r="J163" s="5" t="s">
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2"/>
+      <c r="J163" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="K163" s="5"/>
-      <c r="L163" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="M163" s="5" t="s">
+      <c r="K163" s="2"/>
+      <c r="L163" s="4"/>
+      <c r="M163" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N163" s="5" t="s">
+      <c r="N163" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="O163" s="5"/>
-      <c r="P163" s="5"/>
-      <c r="Q163" s="5"/>
-      <c r="R163" s="5"/>
-      <c r="S163" s="5"/>
-      <c r="T163" s="5"/>
-      <c r="U163" s="5" t="s">
+      <c r="O163" s="2"/>
+      <c r="P163" s="2"/>
+      <c r="Q163" s="2"/>
+      <c r="R163" s="2"/>
+      <c r="S163" s="2"/>
+      <c r="T163" s="2"/>
+      <c r="U163" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="V163" s="5"/>
+      <c r="V163" s="2"/>
     </row>
     <row r="164" spans="1:22">
       <c r="A164" s="5" t="s">
@@ -9932,9 +9848,7 @@
         <v>274</v>
       </c>
       <c r="K164" s="5"/>
-      <c r="L164" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L164" s="4"/>
       <c r="M164" s="5" t="s">
         <v>51</v>
       </c>
@@ -9982,9 +9896,7 @@
         <v>275</v>
       </c>
       <c r="K165" s="5"/>
-      <c r="L165" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L165" s="4"/>
       <c r="M165" s="5" t="s">
         <v>51</v>
       </c>
@@ -10038,9 +9950,7 @@
         <v>275</v>
       </c>
       <c r="K166" s="5"/>
-      <c r="L166" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L166" s="4"/>
       <c r="M166" s="5" t="s">
         <v>51</v>
       </c>
@@ -10094,9 +10004,7 @@
       <c r="K167" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="L167" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L167" s="4"/>
       <c r="M167" s="5" t="s">
         <v>51</v>
       </c>
@@ -10150,9 +10058,7 @@
         <v>275</v>
       </c>
       <c r="K168" s="5"/>
-      <c r="L168" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L168" s="4"/>
       <c r="M168" s="5" t="s">
         <v>51</v>
       </c>
@@ -10206,9 +10112,7 @@
         <v>275</v>
       </c>
       <c r="K169" s="5"/>
-      <c r="L169" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L169" s="4"/>
       <c r="M169" s="5" t="s">
         <v>51</v>
       </c>
@@ -10262,9 +10166,7 @@
         <v>275</v>
       </c>
       <c r="K170" s="5"/>
-      <c r="L170" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L170" s="4"/>
       <c r="M170" s="5" t="s">
         <v>51</v>
       </c>
@@ -10291,44 +10193,42 @@
       <c r="V170" s="5"/>
     </row>
     <row r="171" spans="1:22">
-      <c r="A171" s="5" t="s">
+      <c r="A171" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="B171" s="5" t="s">
+      <c r="B171" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C171" s="5"/>
-      <c r="D171" s="5" t="s">
+      <c r="C171" s="2"/>
+      <c r="D171" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E171" s="5"/>
-      <c r="F171" s="5"/>
-      <c r="G171" s="5"/>
-      <c r="H171" s="5"/>
-      <c r="I171" s="5"/>
-      <c r="J171" s="5" t="s">
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
+      <c r="H171" s="2"/>
+      <c r="I171" s="2"/>
+      <c r="J171" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="K171" s="5"/>
-      <c r="L171" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="M171" s="5" t="s">
+      <c r="K171" s="2"/>
+      <c r="L171" s="4"/>
+      <c r="M171" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N171" s="5"/>
-      <c r="O171" s="5" t="s">
+      <c r="N171" s="2"/>
+      <c r="O171" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="P171" s="5"/>
-      <c r="Q171" s="5"/>
-      <c r="R171" s="5"/>
-      <c r="S171" s="5"/>
-      <c r="T171" s="5"/>
-      <c r="U171" s="5" t="s">
+      <c r="P171" s="2"/>
+      <c r="Q171" s="2"/>
+      <c r="R171" s="2"/>
+      <c r="S171" s="2"/>
+      <c r="T171" s="2"/>
+      <c r="U171" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="V171" s="5"/>
+      <c r="V171" s="2"/>
     </row>
     <row r="172" spans="1:22">
       <c r="A172" s="5" t="s">
@@ -10356,9 +10256,7 @@
         <v>275</v>
       </c>
       <c r="K172" s="5"/>
-      <c r="L172" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L172" s="4"/>
       <c r="M172" s="5" t="s">
         <v>52</v>
       </c>
@@ -10383,44 +10281,42 @@
       <c r="V172" s="5"/>
     </row>
     <row r="173" spans="1:22">
-      <c r="A173" s="5" t="s">
+      <c r="A173" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B173" s="5" t="s">
+      <c r="B173" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C173" s="5" t="s">
+      <c r="C173" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D173" s="5"/>
-      <c r="E173" s="5"/>
-      <c r="F173" s="5"/>
-      <c r="G173" s="5"/>
-      <c r="H173" s="5"/>
-      <c r="I173" s="5"/>
-      <c r="J173" s="5" t="s">
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
+      <c r="H173" s="2"/>
+      <c r="I173" s="2"/>
+      <c r="J173" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="K173" s="5"/>
-      <c r="L173" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="M173" s="5" t="s">
+      <c r="K173" s="2"/>
+      <c r="L173" s="4"/>
+      <c r="M173" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N173" s="5" t="s">
+      <c r="N173" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="O173" s="5"/>
-      <c r="P173" s="5"/>
-      <c r="Q173" s="5"/>
-      <c r="R173" s="5"/>
-      <c r="S173" s="5"/>
-      <c r="T173" s="5"/>
-      <c r="U173" s="5" t="s">
+      <c r="O173" s="2"/>
+      <c r="P173" s="2"/>
+      <c r="Q173" s="2"/>
+      <c r="R173" s="2"/>
+      <c r="S173" s="2"/>
+      <c r="T173" s="2"/>
+      <c r="U173" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="V173" s="5"/>
+      <c r="V173" s="2"/>
     </row>
     <row r="174" spans="1:22">
       <c r="A174" s="5" t="s">
@@ -10444,9 +10340,7 @@
         <v>274</v>
       </c>
       <c r="K174" s="5"/>
-      <c r="L174" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L174" s="4"/>
       <c r="M174" s="5" t="s">
         <v>53</v>
       </c>
@@ -10494,9 +10388,7 @@
         <v>275</v>
       </c>
       <c r="K175" s="5"/>
-      <c r="L175" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L175" s="4"/>
       <c r="M175" s="5" t="s">
         <v>53</v>
       </c>
@@ -10550,9 +10442,7 @@
       <c r="K176" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="L176" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L176" s="4"/>
       <c r="M176" s="5" t="s">
         <v>53</v>
       </c>
@@ -10579,44 +10469,42 @@
       </c>
     </row>
     <row r="177" spans="1:22">
-      <c r="A177" s="5" t="s">
+      <c r="A177" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="B177" s="5" t="s">
+      <c r="B177" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C177" s="5" t="s">
+      <c r="C177" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D177" s="5"/>
-      <c r="E177" s="5"/>
-      <c r="F177" s="5"/>
-      <c r="G177" s="5"/>
-      <c r="H177" s="5"/>
-      <c r="I177" s="5"/>
-      <c r="J177" s="5" t="s">
+      <c r="D177" s="2"/>
+      <c r="E177" s="2"/>
+      <c r="F177" s="2"/>
+      <c r="G177" s="2"/>
+      <c r="H177" s="2"/>
+      <c r="I177" s="2"/>
+      <c r="J177" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="K177" s="5"/>
-      <c r="L177" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="M177" s="5" t="s">
+      <c r="K177" s="2"/>
+      <c r="L177" s="4"/>
+      <c r="M177" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N177" s="5" t="s">
+      <c r="N177" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="O177" s="5"/>
-      <c r="P177" s="5"/>
-      <c r="Q177" s="5"/>
-      <c r="R177" s="5"/>
-      <c r="S177" s="5"/>
-      <c r="T177" s="5"/>
-      <c r="U177" s="5" t="s">
+      <c r="O177" s="2"/>
+      <c r="P177" s="2"/>
+      <c r="Q177" s="2"/>
+      <c r="R177" s="2"/>
+      <c r="S177" s="2"/>
+      <c r="T177" s="2"/>
+      <c r="U177" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="V177" s="5"/>
+      <c r="V177" s="2"/>
     </row>
     <row r="178" spans="1:22">
       <c r="A178" s="5" t="s">
@@ -10640,9 +10528,7 @@
         <v>274</v>
       </c>
       <c r="K178" s="5"/>
-      <c r="L178" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L178" s="4"/>
       <c r="M178" s="5" t="s">
         <v>54</v>
       </c>
@@ -10690,9 +10576,7 @@
         <v>275</v>
       </c>
       <c r="K179" s="5"/>
-      <c r="L179" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L179" s="4"/>
       <c r="M179" s="5" t="s">
         <v>54</v>
       </c>
@@ -10746,9 +10630,7 @@
       <c r="K180" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="L180" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L180" s="4"/>
       <c r="M180" s="5" t="s">
         <v>54</v>
       </c>
@@ -10775,44 +10657,42 @@
       </c>
     </row>
     <row r="181" spans="1:22">
-      <c r="A181" s="5" t="s">
+      <c r="A181" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="B181" s="5" t="s">
+      <c r="B181" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C181" s="5" t="s">
+      <c r="C181" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D181" s="5"/>
-      <c r="E181" s="5"/>
-      <c r="F181" s="5"/>
-      <c r="G181" s="5"/>
-      <c r="H181" s="5"/>
-      <c r="I181" s="5"/>
-      <c r="J181" s="5" t="s">
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
+      <c r="G181" s="2"/>
+      <c r="H181" s="2"/>
+      <c r="I181" s="2"/>
+      <c r="J181" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="K181" s="5"/>
-      <c r="L181" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="M181" s="5" t="s">
+      <c r="K181" s="2"/>
+      <c r="L181" s="4"/>
+      <c r="M181" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N181" s="5" t="s">
+      <c r="N181" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O181" s="5"/>
-      <c r="P181" s="5"/>
-      <c r="Q181" s="5"/>
-      <c r="R181" s="5"/>
-      <c r="S181" s="5"/>
-      <c r="T181" s="5"/>
-      <c r="U181" s="5" t="s">
+      <c r="O181" s="2"/>
+      <c r="P181" s="2"/>
+      <c r="Q181" s="2"/>
+      <c r="R181" s="2"/>
+      <c r="S181" s="2"/>
+      <c r="T181" s="2"/>
+      <c r="U181" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="V181" s="5"/>
+      <c r="V181" s="2"/>
     </row>
     <row r="182" spans="1:22">
       <c r="A182" s="5" t="s">
@@ -10836,9 +10716,7 @@
         <v>274</v>
       </c>
       <c r="K182" s="5"/>
-      <c r="L182" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L182" s="4"/>
       <c r="M182" s="5" t="s">
         <v>55</v>
       </c>
@@ -10886,9 +10764,7 @@
         <v>275</v>
       </c>
       <c r="K183" s="5"/>
-      <c r="L183" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L183" s="4"/>
       <c r="M183" s="5" t="s">
         <v>55</v>
       </c>
@@ -10942,9 +10818,7 @@
         <v>275</v>
       </c>
       <c r="K184" s="5"/>
-      <c r="L184" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L184" s="4"/>
       <c r="M184" s="5" t="s">
         <v>55</v>
       </c>
@@ -10998,9 +10872,7 @@
       <c r="K185" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="L185" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L185" s="4"/>
       <c r="M185" s="5" t="s">
         <v>55</v>
       </c>
@@ -11054,9 +10926,7 @@
         <v>275</v>
       </c>
       <c r="K186" s="5"/>
-      <c r="L186" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L186" s="4"/>
       <c r="M186" s="5" t="s">
         <v>55</v>
       </c>
@@ -11110,9 +10980,7 @@
         <v>275</v>
       </c>
       <c r="K187" s="5"/>
-      <c r="L187" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L187" s="4"/>
       <c r="M187" s="5" t="s">
         <v>55</v>
       </c>
@@ -11166,9 +11034,7 @@
         <v>275</v>
       </c>
       <c r="K188" s="5"/>
-      <c r="L188" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L188" s="4"/>
       <c r="M188" s="5" t="s">
         <v>55</v>
       </c>
@@ -11195,48 +11061,46 @@
       <c r="V188" s="5"/>
     </row>
     <row r="189" spans="1:22">
-      <c r="A189" s="5" t="s">
+      <c r="A189" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="B189" s="5" t="s">
+      <c r="B189" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C189" s="5" t="s">
+      <c r="C189" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D189" s="5" t="s">
+      <c r="D189" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E189" s="5"/>
-      <c r="F189" s="5"/>
-      <c r="G189" s="5"/>
-      <c r="H189" s="5"/>
-      <c r="I189" s="5"/>
-      <c r="J189" s="5" t="s">
+      <c r="E189" s="2"/>
+      <c r="F189" s="2"/>
+      <c r="G189" s="2"/>
+      <c r="H189" s="2"/>
+      <c r="I189" s="2"/>
+      <c r="J189" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="K189" s="5"/>
-      <c r="L189" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="M189" s="5" t="s">
+      <c r="K189" s="2"/>
+      <c r="L189" s="4"/>
+      <c r="M189" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N189" s="5" t="s">
+      <c r="N189" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O189" s="5" t="s">
+      <c r="O189" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="P189" s="5"/>
-      <c r="Q189" s="5"/>
-      <c r="R189" s="5"/>
-      <c r="S189" s="5"/>
-      <c r="T189" s="5"/>
-      <c r="U189" s="5" t="s">
+      <c r="P189" s="2"/>
+      <c r="Q189" s="2"/>
+      <c r="R189" s="2"/>
+      <c r="S189" s="2"/>
+      <c r="T189" s="2"/>
+      <c r="U189" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="V189" s="5"/>
+      <c r="V189" s="2"/>
     </row>
     <row r="190" spans="1:22">
       <c r="A190" s="5" t="s">
@@ -11266,9 +11130,7 @@
         <v>275</v>
       </c>
       <c r="K190" s="5"/>
-      <c r="L190" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L190" s="4"/>
       <c r="M190" s="5" t="s">
         <v>56</v>
       </c>
@@ -11322,9 +11184,7 @@
       <c r="K191" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="L191" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L191" s="4"/>
       <c r="M191" s="5" t="s">
         <v>56</v>
       </c>
@@ -11351,48 +11211,46 @@
       </c>
     </row>
     <row r="192" spans="1:22">
-      <c r="A192" s="5" t="s">
+      <c r="A192" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="B192" s="5" t="s">
+      <c r="B192" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C192" s="5" t="s">
+      <c r="C192" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D192" s="5" t="s">
+      <c r="D192" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E192" s="5"/>
-      <c r="F192" s="5"/>
-      <c r="G192" s="5"/>
-      <c r="H192" s="5"/>
-      <c r="I192" s="5"/>
-      <c r="J192" s="5" t="s">
+      <c r="E192" s="2"/>
+      <c r="F192" s="2"/>
+      <c r="G192" s="2"/>
+      <c r="H192" s="2"/>
+      <c r="I192" s="2"/>
+      <c r="J192" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="K192" s="5"/>
-      <c r="L192" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="M192" s="5" t="s">
+      <c r="K192" s="2"/>
+      <c r="L192" s="4"/>
+      <c r="M192" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N192" s="5" t="s">
+      <c r="N192" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O192" s="5" t="s">
+      <c r="O192" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="P192" s="5"/>
-      <c r="Q192" s="5"/>
-      <c r="R192" s="5"/>
-      <c r="S192" s="5"/>
-      <c r="T192" s="5"/>
-      <c r="U192" s="5" t="s">
+      <c r="P192" s="2"/>
+      <c r="Q192" s="2"/>
+      <c r="R192" s="2"/>
+      <c r="S192" s="2"/>
+      <c r="T192" s="2"/>
+      <c r="U192" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="V192" s="5"/>
+      <c r="V192" s="2"/>
     </row>
     <row r="193" spans="1:22">
       <c r="A193" s="5" t="s">
@@ -11422,9 +11280,7 @@
         <v>275</v>
       </c>
       <c r="K193" s="5"/>
-      <c r="L193" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L193" s="4"/>
       <c r="M193" s="5" t="s">
         <v>57</v>
       </c>
@@ -11478,9 +11334,7 @@
       <c r="K194" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="L194" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L194" s="4"/>
       <c r="M194" s="5" t="s">
         <v>57</v>
       </c>
@@ -11507,44 +11361,42 @@
       </c>
     </row>
     <row r="195" spans="1:22">
-      <c r="A195" s="5" t="s">
+      <c r="A195" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="B195" s="5" t="s">
+      <c r="B195" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C195" s="5"/>
-      <c r="D195" s="5" t="s">
+      <c r="C195" s="2"/>
+      <c r="D195" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E195" s="5"/>
-      <c r="F195" s="5"/>
-      <c r="G195" s="5"/>
-      <c r="H195" s="5"/>
-      <c r="I195" s="5"/>
-      <c r="J195" s="5" t="s">
+      <c r="E195" s="2"/>
+      <c r="F195" s="2"/>
+      <c r="G195" s="2"/>
+      <c r="H195" s="2"/>
+      <c r="I195" s="2"/>
+      <c r="J195" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="K195" s="5"/>
-      <c r="L195" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="M195" s="5" t="s">
+      <c r="K195" s="2"/>
+      <c r="L195" s="4"/>
+      <c r="M195" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="N195" s="5"/>
-      <c r="O195" s="5" t="s">
+      <c r="N195" s="2"/>
+      <c r="O195" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="P195" s="5"/>
-      <c r="Q195" s="5"/>
-      <c r="R195" s="5"/>
-      <c r="S195" s="5"/>
-      <c r="T195" s="5"/>
-      <c r="U195" s="5" t="s">
+      <c r="P195" s="2"/>
+      <c r="Q195" s="2"/>
+      <c r="R195" s="2"/>
+      <c r="S195" s="2"/>
+      <c r="T195" s="2"/>
+      <c r="U195" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="V195" s="5"/>
+      <c r="V195" s="2"/>
     </row>
     <row r="196" spans="1:22">
       <c r="A196" s="5" t="s">
@@ -11570,9 +11422,7 @@
         <v>275</v>
       </c>
       <c r="K196" s="5"/>
-      <c r="L196" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L196" s="4"/>
       <c r="M196" s="5" t="s">
         <v>58</v>
       </c>
@@ -11618,9 +11468,7 @@
         <v>275</v>
       </c>
       <c r="K197" s="5"/>
-      <c r="L197" s="7" t="s">
-        <v>322</v>
-      </c>
+      <c r="L197" s="4"/>
       <c r="M197" s="5" t="s">
         <v>58</v>
       </c>

--- a/data/output/FV2304_FV2210/INVOIC/31005.xlsx
+++ b/data/output/FV2304_FV2210/INVOIC/31005.xlsx
@@ -1692,7 +1692,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1715,6 +1715,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1723,6 +1726,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2163,7 +2169,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2499,7 +2505,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2733,7 +2739,7 @@
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N14" s="2"/>
@@ -2921,7 +2927,7 @@
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N18" s="2"/>
@@ -3109,7 +3115,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2"/>
@@ -3293,7 +3299,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2"/>
@@ -3479,7 +3485,7 @@
         <v>302</v>
       </c>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N30" s="2"/>
@@ -3667,7 +3673,7 @@
         <v>303</v>
       </c>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N34" s="2"/>
@@ -3853,7 +3859,7 @@
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N38" s="2"/>
@@ -4043,7 +4049,7 @@
         <v>304</v>
       </c>
       <c r="L42" s="4"/>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N42" s="2"/>
@@ -4183,7 +4189,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -4373,7 +4379,7 @@
         <v>305</v>
       </c>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -4563,7 +4569,7 @@
       </c>
       <c r="K53" s="2"/>
       <c r="L53" s="4"/>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -5257,20 +5263,20 @@
       <c r="B67" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8" t="s">
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="K67" s="8"/>
-      <c r="L67" s="9" t="s">
+      <c r="K67" s="9"/>
+      <c r="L67" s="10" t="s">
         <v>323</v>
       </c>
       <c r="M67" s="5"/>
@@ -5288,25 +5294,25 @@
       <c r="A68" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8" t="s">
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="K68" s="8"/>
-      <c r="L68" s="9" t="s">
+      <c r="K68" s="9"/>
+      <c r="L68" s="10" t="s">
         <v>323</v>
       </c>
       <c r="M68" s="5"/>
@@ -5324,31 +5330,31 @@
       <c r="A69" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E69" s="8" t="s">
+      <c r="E69" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8" t="s">
+      <c r="F69" s="9"/>
+      <c r="G69" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8" t="s">
+      <c r="H69" s="9"/>
+      <c r="I69" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="J69" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="K69" s="8"/>
-      <c r="L69" s="9" t="s">
+      <c r="J69" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="K69" s="9"/>
+      <c r="L69" s="10" t="s">
         <v>323</v>
       </c>
       <c r="M69" s="5"/>
@@ -5366,33 +5372,33 @@
       <c r="A70" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="E70" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8" t="s">
+      <c r="F70" s="9"/>
+      <c r="G70" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8" t="s">
+      <c r="H70" s="9"/>
+      <c r="I70" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="J70" s="8" t="s">
+      <c r="J70" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="K70" s="8" t="s">
+      <c r="K70" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="L70" s="9" t="s">
+      <c r="L70" s="10" t="s">
         <v>323</v>
       </c>
       <c r="M70" s="5"/>
@@ -5410,29 +5416,29 @@
       <c r="A71" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E71" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8" t="s">
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="J71" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="K71" s="8"/>
-      <c r="L71" s="9" t="s">
+      <c r="J71" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="K71" s="9"/>
+      <c r="L71" s="10" t="s">
         <v>323</v>
       </c>
       <c r="M71" s="5"/>
@@ -5460,25 +5466,25 @@
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
-      <c r="L72" s="10" t="s">
+      <c r="L72" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="M72" s="11" t="s">
+      <c r="M72" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="N72" s="11" t="s">
+      <c r="N72" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O72" s="11"/>
-      <c r="P72" s="11"/>
-      <c r="Q72" s="11"/>
-      <c r="R72" s="11"/>
-      <c r="S72" s="11"/>
-      <c r="T72" s="11"/>
-      <c r="U72" s="11" t="s">
+      <c r="O72" s="13"/>
+      <c r="P72" s="13"/>
+      <c r="Q72" s="13"/>
+      <c r="R72" s="13"/>
+      <c r="S72" s="13"/>
+      <c r="T72" s="13"/>
+      <c r="U72" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="V72" s="11"/>
+      <c r="V72" s="13"/>
     </row>
     <row r="73" spans="1:22">
       <c r="A73" s="5" t="s">
@@ -5494,27 +5500,27 @@
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
-      <c r="L73" s="10" t="s">
+      <c r="L73" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="M73" s="11" t="s">
+      <c r="M73" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="N73" s="11" t="s">
+      <c r="N73" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O73" s="11" t="s">
+      <c r="O73" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="P73" s="11"/>
-      <c r="Q73" s="11"/>
-      <c r="R73" s="11"/>
-      <c r="S73" s="11"/>
-      <c r="T73" s="11"/>
-      <c r="U73" s="11" t="s">
+      <c r="P73" s="13"/>
+      <c r="Q73" s="13"/>
+      <c r="R73" s="13"/>
+      <c r="S73" s="13"/>
+      <c r="T73" s="13"/>
+      <c r="U73" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="V73" s="11"/>
+      <c r="V73" s="13"/>
     </row>
     <row r="74" spans="1:22">
       <c r="A74" s="5" t="s">
@@ -5530,33 +5536,33 @@
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
-      <c r="L74" s="10" t="s">
+      <c r="L74" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="M74" s="11" t="s">
+      <c r="M74" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="N74" s="11" t="s">
+      <c r="N74" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O74" s="11" t="s">
+      <c r="O74" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="P74" s="11" t="s">
+      <c r="P74" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="Q74" s="11"/>
-      <c r="R74" s="11" t="s">
+      <c r="Q74" s="13"/>
+      <c r="R74" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="S74" s="11"/>
-      <c r="T74" s="11" t="s">
+      <c r="S74" s="13"/>
+      <c r="T74" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="U74" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="V74" s="11"/>
+      <c r="U74" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="V74" s="13"/>
     </row>
     <row r="75" spans="1:22">
       <c r="A75" s="5" t="s">
@@ -5572,33 +5578,33 @@
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
-      <c r="L75" s="10" t="s">
+      <c r="L75" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="M75" s="11" t="s">
+      <c r="M75" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="N75" s="11" t="s">
+      <c r="N75" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O75" s="11" t="s">
+      <c r="O75" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="P75" s="11" t="s">
+      <c r="P75" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="Q75" s="11"/>
-      <c r="R75" s="11" t="s">
+      <c r="Q75" s="13"/>
+      <c r="R75" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="S75" s="11"/>
-      <c r="T75" s="11" t="s">
+      <c r="S75" s="13"/>
+      <c r="T75" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="U75" s="11" t="s">
+      <c r="U75" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="V75" s="11" t="s">
+      <c r="V75" s="13" t="s">
         <v>308</v>
       </c>
     </row>
@@ -5616,31 +5622,31 @@
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
-      <c r="L76" s="10" t="s">
+      <c r="L76" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="M76" s="11" t="s">
+      <c r="M76" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="N76" s="11" t="s">
+      <c r="N76" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O76" s="11" t="s">
+      <c r="O76" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="P76" s="11" t="s">
+      <c r="P76" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="Q76" s="11"/>
-      <c r="R76" s="11"/>
-      <c r="S76" s="11"/>
-      <c r="T76" s="11" t="s">
+      <c r="Q76" s="13"/>
+      <c r="R76" s="13"/>
+      <c r="S76" s="13"/>
+      <c r="T76" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="U76" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="V76" s="11"/>
+      <c r="U76" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="V76" s="13"/>
     </row>
     <row r="77" spans="1:22">
       <c r="A77" s="2" t="s">
@@ -5663,7 +5669,7 @@
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -5849,7 +5855,7 @@
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -6209,7 +6215,7 @@
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -6903,22 +6909,22 @@
       <c r="B102" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C102" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="8"/>
-      <c r="J102" s="8" t="s">
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="K102" s="8" t="s">
+      <c r="K102" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="L102" s="9" t="s">
+      <c r="L102" s="10" t="s">
         <v>323</v>
       </c>
       <c r="M102" s="5"/>
@@ -6936,25 +6942,25 @@
       <c r="A103" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="C103" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D103" s="8" t="s">
+      <c r="D103" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="8"/>
-      <c r="I103" s="8"/>
-      <c r="J103" s="8" t="s">
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="K103" s="8"/>
-      <c r="L103" s="9" t="s">
+      <c r="K103" s="9"/>
+      <c r="L103" s="10" t="s">
         <v>323</v>
       </c>
       <c r="M103" s="5"/>
@@ -6972,31 +6978,31 @@
       <c r="A104" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="C104" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D104" s="8" t="s">
+      <c r="D104" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E104" s="8" t="s">
+      <c r="E104" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F104" s="8"/>
-      <c r="G104" s="8" t="s">
+      <c r="F104" s="9"/>
+      <c r="G104" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="H104" s="8"/>
-      <c r="I104" s="8" t="s">
+      <c r="H104" s="9"/>
+      <c r="I104" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="J104" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="K104" s="8"/>
-      <c r="L104" s="9" t="s">
+      <c r="J104" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="K104" s="9"/>
+      <c r="L104" s="10" t="s">
         <v>323</v>
       </c>
       <c r="M104" s="5"/>
@@ -7014,33 +7020,33 @@
       <c r="A105" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C105" s="8" t="s">
+      <c r="C105" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D105" s="8" t="s">
+      <c r="D105" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E105" s="8" t="s">
+      <c r="E105" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8" t="s">
+      <c r="F105" s="9"/>
+      <c r="G105" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="H105" s="8"/>
-      <c r="I105" s="8" t="s">
+      <c r="H105" s="9"/>
+      <c r="I105" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="J105" s="8" t="s">
+      <c r="J105" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="K105" s="8" t="s">
+      <c r="K105" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="L105" s="9" t="s">
+      <c r="L105" s="10" t="s">
         <v>323</v>
       </c>
       <c r="M105" s="5"/>
@@ -7058,29 +7064,29 @@
       <c r="A106" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B106" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="C106" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D106" s="8" t="s">
+      <c r="D106" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E106" s="8" t="s">
+      <c r="E106" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F106" s="8"/>
-      <c r="G106" s="8"/>
-      <c r="H106" s="8"/>
-      <c r="I106" s="8" t="s">
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="J106" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="K106" s="8"/>
-      <c r="L106" s="9" t="s">
+      <c r="J106" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="K106" s="9"/>
+      <c r="L106" s="10" t="s">
         <v>323</v>
       </c>
       <c r="M106" s="5"/>
@@ -7108,25 +7114,25 @@
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
-      <c r="L107" s="10" t="s">
+      <c r="L107" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="M107" s="11" t="s">
+      <c r="M107" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="N107" s="11" t="s">
+      <c r="N107" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O107" s="11"/>
-      <c r="P107" s="11"/>
-      <c r="Q107" s="11"/>
-      <c r="R107" s="11"/>
-      <c r="S107" s="11"/>
-      <c r="T107" s="11"/>
-      <c r="U107" s="11" t="s">
+      <c r="O107" s="13"/>
+      <c r="P107" s="13"/>
+      <c r="Q107" s="13"/>
+      <c r="R107" s="13"/>
+      <c r="S107" s="13"/>
+      <c r="T107" s="13"/>
+      <c r="U107" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="V107" s="11" t="s">
+      <c r="V107" s="13" t="s">
         <v>309</v>
       </c>
     </row>
@@ -7144,27 +7150,27 @@
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
-      <c r="L108" s="10" t="s">
+      <c r="L108" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="M108" s="11" t="s">
+      <c r="M108" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="N108" s="11" t="s">
+      <c r="N108" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O108" s="11" t="s">
+      <c r="O108" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="P108" s="11"/>
-      <c r="Q108" s="11"/>
-      <c r="R108" s="11"/>
-      <c r="S108" s="11"/>
-      <c r="T108" s="11"/>
-      <c r="U108" s="11" t="s">
+      <c r="P108" s="13"/>
+      <c r="Q108" s="13"/>
+      <c r="R108" s="13"/>
+      <c r="S108" s="13"/>
+      <c r="T108" s="13"/>
+      <c r="U108" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="V108" s="11"/>
+      <c r="V108" s="13"/>
     </row>
     <row r="109" spans="1:22">
       <c r="A109" s="5" t="s">
@@ -7180,33 +7186,33 @@
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
-      <c r="L109" s="10" t="s">
+      <c r="L109" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="M109" s="11" t="s">
+      <c r="M109" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="N109" s="11" t="s">
+      <c r="N109" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O109" s="11" t="s">
+      <c r="O109" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="P109" s="11" t="s">
+      <c r="P109" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="Q109" s="11"/>
-      <c r="R109" s="11" t="s">
+      <c r="Q109" s="13"/>
+      <c r="R109" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="S109" s="11"/>
-      <c r="T109" s="11" t="s">
+      <c r="S109" s="13"/>
+      <c r="T109" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="U109" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="V109" s="11"/>
+      <c r="U109" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="V109" s="13"/>
     </row>
     <row r="110" spans="1:22">
       <c r="A110" s="5" t="s">
@@ -7222,33 +7228,33 @@
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
-      <c r="L110" s="10" t="s">
+      <c r="L110" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="M110" s="11" t="s">
+      <c r="M110" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="N110" s="11" t="s">
+      <c r="N110" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O110" s="11" t="s">
+      <c r="O110" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="P110" s="11" t="s">
+      <c r="P110" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="Q110" s="11"/>
-      <c r="R110" s="11" t="s">
+      <c r="Q110" s="13"/>
+      <c r="R110" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="S110" s="11"/>
-      <c r="T110" s="11" t="s">
+      <c r="S110" s="13"/>
+      <c r="T110" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="U110" s="11" t="s">
+      <c r="U110" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="V110" s="11" t="s">
+      <c r="V110" s="13" t="s">
         <v>308</v>
       </c>
     </row>
@@ -7266,31 +7272,31 @@
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
-      <c r="L111" s="10" t="s">
+      <c r="L111" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="M111" s="11" t="s">
+      <c r="M111" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="N111" s="11" t="s">
+      <c r="N111" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="O111" s="11" t="s">
+      <c r="O111" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="P111" s="11" t="s">
+      <c r="P111" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="Q111" s="11"/>
-      <c r="R111" s="11"/>
-      <c r="S111" s="11"/>
-      <c r="T111" s="11" t="s">
+      <c r="Q111" s="13"/>
+      <c r="R111" s="13"/>
+      <c r="S111" s="13"/>
+      <c r="T111" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="U111" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="V111" s="11"/>
+      <c r="U111" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="V111" s="13"/>
     </row>
     <row r="112" spans="1:22">
       <c r="A112" s="2" t="s">
@@ -7313,7 +7319,7 @@
       </c>
       <c r="K112" s="2"/>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -7652,31 +7658,31 @@
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
       <c r="K119" s="5"/>
-      <c r="L119" s="10" t="s">
+      <c r="L119" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="M119" s="11" t="s">
+      <c r="M119" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="N119" s="11" t="s">
+      <c r="N119" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O119" s="11" t="s">
+      <c r="O119" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="P119" s="11" t="s">
+      <c r="P119" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="Q119" s="11"/>
-      <c r="R119" s="11"/>
-      <c r="S119" s="11"/>
-      <c r="T119" s="11" t="s">
+      <c r="Q119" s="13"/>
+      <c r="R119" s="13"/>
+      <c r="S119" s="13"/>
+      <c r="T119" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="U119" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="V119" s="11"/>
+      <c r="U119" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="V119" s="13"/>
     </row>
     <row r="120" spans="1:22">
       <c r="A120" s="2" t="s">
@@ -7701,7 +7707,7 @@
       </c>
       <c r="K120" s="2"/>
       <c r="L120" s="4"/>
-      <c r="M120" s="2" t="s">
+      <c r="M120" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N120" s="2" t="s">
@@ -7849,7 +7855,7 @@
       </c>
       <c r="K123" s="2"/>
       <c r="L123" s="4"/>
-      <c r="M123" s="2" t="s">
+      <c r="M123" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -8091,7 +8097,7 @@
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -8227,7 +8233,7 @@
       </c>
       <c r="K131" s="2"/>
       <c r="L131" s="4"/>
-      <c r="M131" s="2" t="s">
+      <c r="M131" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N131" s="2" t="s">
@@ -8431,7 +8437,7 @@
       </c>
       <c r="K135" s="2"/>
       <c r="L135" s="4"/>
-      <c r="M135" s="2" t="s">
+      <c r="M135" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N135" s="2" t="s">
@@ -8675,7 +8681,7 @@
       </c>
       <c r="K140" s="2"/>
       <c r="L140" s="4"/>
-      <c r="M140" s="2" t="s">
+      <c r="M140" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N140" s="2" t="s">
@@ -8883,7 +8889,7 @@
         <v>316</v>
       </c>
       <c r="L144" s="4"/>
-      <c r="M144" s="2" t="s">
+      <c r="M144" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N144" s="2" t="s">
@@ -9035,7 +9041,7 @@
       </c>
       <c r="K147" s="2"/>
       <c r="L147" s="4"/>
-      <c r="M147" s="2" t="s">
+      <c r="M147" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N147" s="2" t="s">
@@ -9235,7 +9241,7 @@
       </c>
       <c r="K151" s="2"/>
       <c r="L151" s="4"/>
-      <c r="M151" s="2" t="s">
+      <c r="M151" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N151" s="2" t="s">
@@ -9433,7 +9439,7 @@
       </c>
       <c r="K155" s="2"/>
       <c r="L155" s="4"/>
-      <c r="M155" s="2" t="s">
+      <c r="M155" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N155" s="2" t="s">
@@ -9621,7 +9627,7 @@
       </c>
       <c r="K159" s="2"/>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N159" s="2" t="s">
@@ -9809,7 +9815,7 @@
       </c>
       <c r="K163" s="2"/>
       <c r="L163" s="4"/>
-      <c r="M163" s="2" t="s">
+      <c r="M163" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N163" s="2" t="s">
@@ -10213,7 +10219,7 @@
       </c>
       <c r="K171" s="2"/>
       <c r="L171" s="4"/>
-      <c r="M171" s="2" t="s">
+      <c r="M171" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N171" s="2"/>
@@ -10301,7 +10307,7 @@
       </c>
       <c r="K173" s="2"/>
       <c r="L173" s="4"/>
-      <c r="M173" s="2" t="s">
+      <c r="M173" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N173" s="2" t="s">
@@ -10489,7 +10495,7 @@
       </c>
       <c r="K177" s="2"/>
       <c r="L177" s="4"/>
-      <c r="M177" s="2" t="s">
+      <c r="M177" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N177" s="2" t="s">
@@ -10677,7 +10683,7 @@
       </c>
       <c r="K181" s="2"/>
       <c r="L181" s="4"/>
-      <c r="M181" s="2" t="s">
+      <c r="M181" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N181" s="2" t="s">
@@ -11083,7 +11089,7 @@
       </c>
       <c r="K189" s="2"/>
       <c r="L189" s="4"/>
-      <c r="M189" s="2" t="s">
+      <c r="M189" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N189" s="2" t="s">
@@ -11233,7 +11239,7 @@
       </c>
       <c r="K192" s="2"/>
       <c r="L192" s="4"/>
-      <c r="M192" s="2" t="s">
+      <c r="M192" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N192" s="2" t="s">
@@ -11381,7 +11387,7 @@
       </c>
       <c r="K195" s="2"/>
       <c r="L195" s="4"/>
-      <c r="M195" s="2" t="s">
+      <c r="M195" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N195" s="2"/>
